--- a/biology/Histoire de la zoologie et de la botanique/Maurice_Collignon/Maurice_Collignon.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Maurice_Collignon/Maurice_Collignon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maurice Jules Marie Collignon est un officier général et paléontologue français, né le 9 juin 1893 à Saint-Malo (Ille-et-Vilaine) et mort le 21 octobre 1978 à Moirans (Isère).
 </t>
@@ -511,7 +523,9 @@
           <t>Parcours</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Entré à Saint-Cyr en 1913, il prépare l'École de guerre entre 1922 et 1924. Il effectue des recherches géologiques notamment en Autriche pour récolter des fossiles du Trias alpin. Nommé à l'état-major de Metz, il devient spécialiste des oursins fossiles.
 Sa carrière militaire se termine en 1950 avec le grade de Général de division, après la guerre de 1914-1918 au cours de laquelle il est blessé et celle de 1939-1945 où il est nommé chef d'état-major d'une division de Chasseurs. À partir de 1950, il occupe le poste de paléontologue au Service géologique d'outre-mer, avant de devenir géologue en chef hors classe de la France d'outre-mer et paléontologue du Service géologique de Madagascar. En 1952, il dirige l'exploration géologique et paléontologique du sud de Madagascar, puis celle de l'ouest l'année suivante, jusqu'à Diego-Suarez.
@@ -543,7 +557,9 @@
           <t>Décorations &amp; Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Croix de guerre 1914-1918
  Croix de guerre 1939-1945
@@ -582,7 +598,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Collignon, M. (1948-1956) - Ammonites néocrétacées du Menabe (Madagascar) (en 6 volumes), Annales Géologiques du Service des Mines, Paris.
 Collignon, M. (1958-1971) - Atlas des fossiles caractéristiques de Madagascar (en 17 volumes), Service Géologique de Madagascar, Tananarive.</t>
